--- a/notes/cmom-0003-2019-03-04-pnvi-address-exposed-examples/tests_status.xlsx
+++ b/notes/cmom-0003-2019-03-04-pnvi-address-exposed-examples/tests_status.xlsx
@@ -8,10 +8,12 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Cerberus" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Compilers" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$H$63</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Cerberus!$A$1:$H$68</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">Compilers!$A$1:$K$66</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="108">
   <si>
     <t xml:space="preserve">test</t>
   </si>
@@ -1274,8 +1276,8 @@
   </sheetPr>
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F58" activeCellId="0" sqref="F58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B71" activeCellId="0" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3868,10 +3870,1732 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N66"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B81" activeCellId="0" sqref="B81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="4" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1019" style="0" width="14.43"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13"/>
+      <c r="B5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13"/>
+      <c r="B6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13"/>
+      <c r="B7" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="31" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13"/>
+      <c r="B10" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13"/>
+      <c r="B11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13"/>
+      <c r="B12" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13"/>
+      <c r="B14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13"/>
+      <c r="B15" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13"/>
+      <c r="B16" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13"/>
+      <c r="B17" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13"/>
+      <c r="B18" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="31" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13"/>
+      <c r="B21" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13"/>
+      <c r="B22" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13"/>
+      <c r="B23" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13" t="n">
+        <v>7</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13"/>
+      <c r="B25" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="13"/>
+      <c r="B26" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="13"/>
+      <c r="B27" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="13"/>
+      <c r="B29" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="31" t="n">
+        <v>9</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="31" t="n">
+        <v>10</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="31" t="n">
+        <v>11</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="31" t="n">
+        <v>12</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="31" t="n">
+        <v>13</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="31" t="n">
+        <v>13</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="31" t="n">
+        <v>15</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="48" t="n">
+        <v>16</v>
+      </c>
+      <c r="B37" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="13" t="n">
+        <v>17</v>
+      </c>
+      <c r="B38" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="13"/>
+      <c r="B39" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="13"/>
+      <c r="B40" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="13"/>
+      <c r="B41" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="B42" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="K42" s="40"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="13"/>
+      <c r="B43" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="41"/>
+      <c r="F43" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="61"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="13"/>
+      <c r="B44" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="K44" s="42"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="13"/>
+      <c r="B45" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="K45" s="43"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="31" t="n">
+        <v>19</v>
+      </c>
+      <c r="B46" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="B47" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="J47" s="70"/>
+      <c r="K47" s="70"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="13"/>
+      <c r="B48" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="70"/>
+      <c r="K48" s="70"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="13"/>
+      <c r="B49" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="70"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="13" t="n">
+        <v>21</v>
+      </c>
+      <c r="B50" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="73"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="73"/>
+      <c r="H50" s="73"/>
+      <c r="I50" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" s="74"/>
+      <c r="K50" s="74"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="13"/>
+      <c r="B51" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="78"/>
+      <c r="F51" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="G51" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="78"/>
+      <c r="I51" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="J51" s="79"/>
+      <c r="K51" s="79"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="13"/>
+      <c r="B52" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" s="80"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="80"/>
+      <c r="G52" s="80"/>
+      <c r="H52" s="80"/>
+      <c r="I52" s="80"/>
+      <c r="J52" s="80"/>
+      <c r="K52" s="80"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="13"/>
+      <c r="B53" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="80"/>
+      <c r="H53" s="80"/>
+      <c r="I53" s="80"/>
+      <c r="J53" s="80"/>
+      <c r="K53" s="80"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="13"/>
+      <c r="B54" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="80"/>
+      <c r="H54" s="80"/>
+      <c r="I54" s="80"/>
+      <c r="J54" s="80"/>
+      <c r="K54" s="80"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="13"/>
+      <c r="B55" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="80"/>
+      <c r="H55" s="80"/>
+      <c r="I55" s="80"/>
+      <c r="J55" s="80"/>
+      <c r="K55" s="80"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="13"/>
+      <c r="B56" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" s="82"/>
+      <c r="H56" s="82"/>
+      <c r="I56" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="13"/>
+      <c r="B57" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="83" t="n">
+        <v>22</v>
+      </c>
+      <c r="B58" s="84" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="88" t="n">
+        <v>23</v>
+      </c>
+      <c r="B59" s="89" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" s="82"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" s="91"/>
+      <c r="K59" s="91"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="88"/>
+      <c r="B60" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="J60" s="92"/>
+      <c r="K60" s="92"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="88"/>
+      <c r="B61" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="J61" s="60"/>
+      <c r="K61" s="60"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="88"/>
+      <c r="B62" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="J62" s="96"/>
+      <c r="K62" s="96"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="88"/>
+      <c r="B63" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="J63" s="60"/>
+      <c r="K63" s="60"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="98"/>
+      <c r="B64" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="100"/>
+      <c r="E64" s="100"/>
+      <c r="F64" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" s="101"/>
+      <c r="K64" s="101"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="102"/>
+      <c r="C65" s="102"/>
+      <c r="D65" s="102"/>
+      <c r="E65" s="102"/>
+      <c r="F65" s="102"/>
+      <c r="G65" s="102"/>
+      <c r="H65" s="102"/>
+      <c r="I65" s="102"/>
+      <c r="J65" s="102"/>
+      <c r="K65" s="102"/>
+      <c r="L65" s="102"/>
+      <c r="M65" s="102"/>
+      <c r="N65" s="102"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="102" t="s">
+        <v>104</v>
+      </c>
+      <c r="C66" s="102"/>
+      <c r="D66" s="102"/>
+      <c r="E66" s="102"/>
+      <c r="F66" s="102"/>
+      <c r="G66" s="102"/>
+      <c r="H66" s="102"/>
+      <c r="I66" s="102"/>
+      <c r="J66" s="102"/>
+      <c r="K66" s="102"/>
+      <c r="L66" s="102"/>
+      <c r="M66" s="102"/>
+      <c r="N66" s="102"/>
+    </row>
+  </sheetData>
+  <mergeCells count="144">
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="C9:E12"/>
+    <mergeCell ref="F9:H12"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H18"/>
+    <mergeCell ref="I13:K18"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="C24:E27"/>
+    <mergeCell ref="F24:H27"/>
+    <mergeCell ref="I24:K27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:E29"/>
+    <mergeCell ref="F28:H29"/>
+    <mergeCell ref="I28:K29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="C38:E41"/>
+    <mergeCell ref="F38:H41"/>
+    <mergeCell ref="I38:K41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:H45"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="C47:E49"/>
+    <mergeCell ref="F47:H49"/>
+    <mergeCell ref="I47:K49"/>
+    <mergeCell ref="A50:A57"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="C52:K55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="I61:K61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="I62:K62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="I63:K63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="I64:K64"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0" right="0" top="0.265277777777778" bottom="0.265277777777778" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="62" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>